--- a/asset/中高风险地区统计表.xlsx
+++ b/asset/中高风险地区统计表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asprinchang/CodeWorkSpace/PythonProject/MapDemo/asset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asprinchang/CodeWorkSpace/PythonProject/MapDemo_python/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9610F6F-106E-364B-9E19-27285F8554E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC53F0-C877-5344-8D90-F6A72A4E251E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22820" yWindow="500" windowWidth="28240" windowHeight="26880" xr2:uid="{202C529F-B391-E24F-83F1-C0461D09A1F7}"/>
+    <workbookView xWindow="10160" yWindow="500" windowWidth="28240" windowHeight="19700" firstSheet="24" activeTab="27" xr2:uid="{202C529F-B391-E24F-83F1-C0461D09A1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="8-7-red" sheetId="52" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12860" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14845" uniqueCount="1513">
   <si>
     <t>date</t>
   </si>
@@ -4079,6 +4079,820 @@
   </si>
   <si>
     <t>拉萨市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区平安路财政宾馆</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街名人酒店</t>
+  </si>
+  <si>
+    <t>巴宜区滨河大道东辰锦辉酒店</t>
+  </si>
+  <si>
+    <t>巴宜区工布老街B4号108室贡嘎林藏餐馆</t>
+  </si>
+  <si>
+    <t>巴宜区福清路林源大道西北侧民俗噜吐藏餐厅</t>
+  </si>
+  <si>
+    <t>巴宜区香港路步行街美人计</t>
+  </si>
+  <si>
+    <t>巴宜区广州大道南段45号俏夫人</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街健民大药房</t>
+  </si>
+  <si>
+    <t>巴宜区世界柏树王园林景区</t>
+  </si>
+  <si>
+    <t>巴宜区平安路148号蜀中</t>
+  </si>
+  <si>
+    <t>吴秘制养生板栗鸡</t>
+  </si>
+  <si>
+    <t>巴宜区德吉路大秦饭庄</t>
+  </si>
+  <si>
+    <t>巴宜区卡定天佛瀑布森林景区</t>
+  </si>
+  <si>
+    <t>巴宜区百巴镇古如扎布寺</t>
+  </si>
+  <si>
+    <t>工布江达县巴松措风景区</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街北段飞腾通讯</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街北段飞腾通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区平安路财政宾馆整栋楼（含商品房）</t>
+  </si>
+  <si>
+    <t>巴宜区鲁朗镇人民政府斜对面120米喜路酒店</t>
+  </si>
+  <si>
+    <t>巴宜区工布老街B2号林芝柏栎荟舍酒店</t>
+  </si>
+  <si>
+    <t>巴宜区神山宾馆</t>
+  </si>
+  <si>
+    <t>巴宜区尚品花园酒店</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区B2区3栋</t>
+  </si>
+  <si>
+    <t>巴宜区平安路148号蜀中吴秘制养生板栗鸡</t>
+  </si>
+  <si>
+    <t>巴宜区百巴镇吾金扎菩</t>
+  </si>
+  <si>
+    <t>巴宜区布久乡喇嘛岭</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街德克士（厦门广场店）</t>
+  </si>
+  <si>
+    <t>巴宜区福建路风情大酒店</t>
+  </si>
+  <si>
+    <t>巴宜区工布印象舌尖派对</t>
+  </si>
+  <si>
+    <t>巴宜区盐帮菌王府（新区店）</t>
+  </si>
+  <si>
+    <t>巴宜区广州大道绿色墨脱石锅城</t>
+  </si>
+  <si>
+    <t>工布江达县巴河镇巴松湖鱼庄</t>
+  </si>
+  <si>
+    <t>工布江达县巴河镇巴河鱼庄</t>
+  </si>
+  <si>
+    <t>工布江达县巴河镇桥头鱼庄</t>
+  </si>
+  <si>
+    <t>工布江达县巴河镇错高湖鱼庄</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区B3-16-S114号啦咧思藏餐厅</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区B3-16-S114号啦咧思藏餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区平安路与广东路交叉口西南40米处阿牛茶馆</t>
+  </si>
+  <si>
+    <t>巴宜区滨河大道林芝印象酒店</t>
+  </si>
+  <si>
+    <t>巴宜区等你归来民宿</t>
+  </si>
+  <si>
+    <t>巴宜区林芝镇蜀香食府巴宜区幸福小区皇家包子</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区C4区8栋</t>
+  </si>
+  <si>
+    <t>朗县福州路福园藏餐厅</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区蜜雪冰城</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街北段顺意商店</t>
+  </si>
+  <si>
+    <t>巴宜区鲁朗镇扎西岗村阿佳其美藏家别院</t>
+  </si>
+  <si>
+    <t>巴宜区如在蜀毛肚老火锅（林芝店）</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区川韵小厨</t>
+  </si>
+  <si>
+    <t>巴宜区尼池东路粥道</t>
+  </si>
+  <si>
+    <t>巴宜区尼池东路老陕味道</t>
+  </si>
+  <si>
+    <t>巴宜区嘉龙步行街小番茄零售店</t>
+  </si>
+  <si>
+    <t>巴宜区嘉龙步行街怡翁藏装店</t>
+  </si>
+  <si>
+    <t>巴宜区百巴镇伍巴村</t>
+  </si>
+  <si>
+    <t>巴宜区贵有宾馆对面聂秋红商店</t>
+  </si>
+  <si>
+    <t>巴宜区艾米美业接发潮色补发店</t>
+  </si>
+  <si>
+    <t>林芝市人社局</t>
+  </si>
+  <si>
+    <t>巴宜区平安路岐康大药房</t>
+  </si>
+  <si>
+    <t>巴宜区百盛药业有限公司</t>
+  </si>
+  <si>
+    <t>幸福小区幸福购物超市</t>
+  </si>
+  <si>
+    <t>巴宜区物美联华超市</t>
+  </si>
+  <si>
+    <t>巴宜区太阳城12栋</t>
+  </si>
+  <si>
+    <t>巴宜区富丽名城3栋</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街小小饰界</t>
+  </si>
+  <si>
+    <t>巴宜区纺织新街猩猩地堡酒吧</t>
+  </si>
+  <si>
+    <t>林芝市政务服务中心巴宜区嘉瑞超市</t>
+  </si>
+  <si>
+    <t>巴宜区白玛岗蔬菜店（白玛岗小区内）</t>
+  </si>
+  <si>
+    <t>巴宜区新城农贸市场星里奥网咖</t>
+  </si>
+  <si>
+    <t>巴宜区往来批发超市（新区公租房对面）</t>
+  </si>
+  <si>
+    <t>巴宜区工布印象聚星台球</t>
+  </si>
+  <si>
+    <t>巴宜区宜博电竞馆嘉龙店</t>
+  </si>
+  <si>
+    <t>巴宜区厦门广场中国农业银行林芝中心支行</t>
+  </si>
+  <si>
+    <t>巴宜区武警退休区花园巷39号</t>
+  </si>
+  <si>
+    <t>巴宜区更张林场退休区</t>
+  </si>
+  <si>
+    <t>巴宜区林芝镇蜀香食府</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区皇家包子</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街北段顺意商店巴宜区鲁朗镇扎西岗村阿佳其美藏家别院</t>
+  </si>
+  <si>
+    <t>林芝市政务服务中心</t>
+  </si>
+  <si>
+    <t>巴宜区嘉瑞超市</t>
+  </si>
+  <si>
+    <t>巴宜区平安路潼南商店</t>
+  </si>
+  <si>
+    <t>巴宜区鲜鲜平价蔬菜店</t>
+  </si>
+  <si>
+    <t>巴宜区广东路高科家电维修</t>
+  </si>
+  <si>
+    <t>巴宜区汇通名车</t>
+  </si>
+  <si>
+    <t>巴宜区水之缘桑拿浴足中心</t>
+  </si>
+  <si>
+    <t>国家能源集团1栋</t>
+  </si>
+  <si>
+    <t>巴宜区肯德基（林芝百货店）</t>
+  </si>
+  <si>
+    <t>巴宜区牦牛广场鲁故藏餐馆</t>
+  </si>
+  <si>
+    <t>林芝咿呀母婴店（大原店）</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区纳家楼蒸汽牛肉拉面馆</t>
+  </si>
+  <si>
+    <t>巴宜区滨河大道东辰锦辉酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区物美联华超市巴宜区物美联华超市</t>
+  </si>
+  <si>
+    <t>巴宜区八一大街健民大药房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区福建路风情大酒店巴宜区幸福小区皇家包子</t>
+  </si>
+  <si>
+    <t>巴宜区巴吉西路国家能源集团1栋</t>
+  </si>
+  <si>
+    <t>巴宜区咿呀母婴店（大原店）</t>
+  </si>
+  <si>
+    <t>巴宜区工布老街B5栋林芝民生村镇银行</t>
+  </si>
+  <si>
+    <t>77675部队往拉萨方向200米处电厂小区7栋</t>
+  </si>
+  <si>
+    <t>巴宜区富丽名城3栋巴宜区富丽名城3栋</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区C2区7栋</t>
+  </si>
+  <si>
+    <t>华能林芝基地14栋</t>
+  </si>
+  <si>
+    <t>工布江达县加兴乡白朗村</t>
+  </si>
+  <si>
+    <t>巴宜区工布老街B2号林芝柏栎荟舍酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区平安路与广东路交叉口西南40米处阿牛茶馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区福建路风情大酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区幸福小区皇家包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区幸福小区C4区8栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗县福州路福园藏餐厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区平安路财政宾馆整栋楼（含商品房）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区肯德基（林芝百货店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区咿呀母婴店（大原店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区幸福小区纳家楼蒸汽牛肉拉面馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区牦牛广场鲁故藏餐馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区幸福小区B2区3栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区水之缘桑拿浴足中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区巴吉西路国家能源集团1栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区工布老街B5栋林芝民生村镇银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77675部队往拉萨方向200米处电厂小区7栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区幸福小区C2区7栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华能林芝基地14栋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工布江达县加兴乡白朗村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区百巴镇和平百货店</t>
+  </si>
+  <si>
+    <t>巴宜区百巴镇和平百货店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区八一镇加丁嘎村</t>
+  </si>
+  <si>
+    <t>巴宜区百巴镇伊品阁蒸汽牛肉面</t>
+  </si>
+  <si>
+    <t>巴宜区双拥北路9号八一电厂小区7栋</t>
+  </si>
+  <si>
+    <t>波密县中学校内职工周转房5栋后平房</t>
+  </si>
+  <si>
+    <t>巴宜区福州大道如家酒店</t>
+  </si>
+  <si>
+    <t>巴宜区太阳城小区13栋</t>
+  </si>
+  <si>
+    <t>巴宜区广州大道公尊德姆民宿</t>
+  </si>
+  <si>
+    <t>巴宜区德吉小区2栋</t>
+  </si>
+  <si>
+    <t>巴宜区林芝镇立定村12巴宜区德吉小区</t>
+  </si>
+  <si>
+    <t>巴宜区就业创业示范街A1-A10</t>
+  </si>
+  <si>
+    <t>巴宜区八一镇更张林场小区5-10栋</t>
+  </si>
+  <si>
+    <t>巴宜区就业创业示范街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区林芝镇立定村</t>
+  </si>
+  <si>
+    <t>巴宜区德吉小区</t>
+  </si>
+  <si>
+    <t>巴宜区巴吉西路巴宜区幼儿园</t>
+  </si>
+  <si>
+    <t>巴宜区八一镇更张林场小区</t>
+  </si>
+  <si>
+    <t>巴宜区八一镇更张林场小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗县洞嘎镇政府驻地全域</t>
+  </si>
+  <si>
+    <t>巴宜区福州大道东段中国农业发展银行林芝分行</t>
+  </si>
+  <si>
+    <t>巴宜区迎宾大道三叶家私</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区双拥西路龙泉小区</t>
+  </si>
+  <si>
+    <t>巴宜区双拥西路龙泉小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗县洞嘎镇岗朵村</t>
+  </si>
+  <si>
+    <t>巴宜区迎宾大道与尼池路交叉口重庆小面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区太阳城小区全域及周边商铺</t>
+  </si>
+  <si>
+    <t>巴宜区迎宾大道三叶家私所在楼栋及周边商铺</t>
+  </si>
+  <si>
+    <t>巴宜区工布民俗街</t>
+  </si>
+  <si>
+    <t>和谐路</t>
+  </si>
+  <si>
+    <t>福州大道东段合围区域</t>
+  </si>
+  <si>
+    <t>巴宜区双拥西路小芳村全域</t>
+  </si>
+  <si>
+    <t>巴宜区福州大道东段</t>
+  </si>
+  <si>
+    <t>巴吉路</t>
+  </si>
+  <si>
+    <t>白玛岗路</t>
+  </si>
+  <si>
+    <t>德吉小区以东路段合围区域</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区新城农贸市场及周边居民住宅和商铺</t>
+  </si>
+  <si>
+    <t>巴宜区乔穆朗宗天街</t>
+  </si>
+  <si>
+    <t>巴宜区幸福小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双拥东路</t>
+  </si>
+  <si>
+    <t>巴宜区工布天街一期</t>
+  </si>
+  <si>
+    <t>巴宜区七天连锁酒店（林芝八一大桥店）东南侧公寓</t>
+  </si>
+  <si>
+    <t>巴宜区福清路步步高小区</t>
+  </si>
+  <si>
+    <t>巴宜区滨河大道北段</t>
+  </si>
+  <si>
+    <t>嘉龙花园西门前方道路</t>
+  </si>
+  <si>
+    <t>广东路</t>
+  </si>
+  <si>
+    <t>平安路围蔽的区域</t>
+  </si>
+  <si>
+    <t>巴宜区滨河大道中段</t>
+  </si>
+  <si>
+    <t>平安路</t>
+  </si>
+  <si>
+    <t>红太阳藏餐吧南侧</t>
+  </si>
+  <si>
+    <t>红太阳藏餐吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区福州大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华能林芝基地14栋2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区永久路民心佳苑</t>
+  </si>
+  <si>
+    <t>巴宜区百巴镇伊品阁蒸汽牛肉面5朗县洞嘎镇政府驻地全域</t>
+  </si>
+  <si>
+    <t>侗济医院北侧围</t>
+  </si>
+  <si>
+    <t>蔽的区域</t>
+  </si>
+  <si>
+    <t>嘉龙花园西门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区太阳城小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区双拥西路小芳村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区七天连锁酒店（林芝八一大桥店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区幸福小区新城农贸市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗县洞嘎镇政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德吉小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区幸福小区新城农贸市场及周边居民住宅和商铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侗济医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴宜区滨河大道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林芝市</t>
+  </si>
+  <si>
+    <t>林芝市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路亚拉巷</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路豪克少儿健康成长生活馆</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路为民医药超市</t>
+  </si>
+  <si>
+    <t>为民诊所</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路天桥百货商店</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路衣尚名流</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路衣尚名流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路顺康超市</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路顺康超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴青县巴青大酒店</t>
+  </si>
+  <si>
+    <t>巴青县巴青电力酒店</t>
+  </si>
+  <si>
+    <t>巴青县川邑大酒店</t>
+  </si>
+  <si>
+    <t>那曲市第一小学职工住宅区（3栋）</t>
+  </si>
+  <si>
+    <t>罗布热地中路与文化中路</t>
+  </si>
+  <si>
+    <t>仲青塘拉大酒店</t>
+  </si>
+  <si>
+    <t>浙江中路酸茶馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉口北拉萨佳布日茶馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江中路达珍凉粉店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那曲市第一小学职工住宅区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路</t>
+  </si>
+  <si>
+    <t>豪克少儿健康成长生活馆</t>
+  </si>
+  <si>
+    <t>那曲市第一小</t>
+  </si>
+  <si>
+    <t>安多县领头羊羊肉汤店</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路为民医药超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安多县县城扶贫门面房1号楼</t>
+  </si>
+  <si>
+    <t>安多县县城扶贫门面房1号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学职工住宅区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗布热地中路与文化中路交叉口北拉萨佳布日茶馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路豪克</t>
+  </si>
+  <si>
+    <t>少儿健康成长生活馆</t>
+  </si>
+  <si>
+    <t>巴青县巴青大酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色尼居委会2组</t>
+  </si>
+  <si>
+    <t>色尼居委会4组</t>
+  </si>
+  <si>
+    <t>色尼居委会5组</t>
+  </si>
+  <si>
+    <t>移动公司</t>
+  </si>
+  <si>
+    <t>市教育局</t>
+  </si>
+  <si>
+    <t>浙江A区36栋</t>
+  </si>
+  <si>
+    <t>仁毛居委会4组</t>
+  </si>
+  <si>
+    <t>德吉居委会3组</t>
+  </si>
+  <si>
+    <t>色尼居委会</t>
+  </si>
+  <si>
+    <t>色尼居委会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁小区C区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市教育局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗布热地居委会</t>
+  </si>
+  <si>
+    <t>罗布热地居委会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁毛居委会</t>
+  </si>
+  <si>
+    <t>仁毛居委会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江A区</t>
+  </si>
+  <si>
+    <t>那曲镇15村</t>
+  </si>
+  <si>
+    <t>那曲镇15村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德吉居委会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班戈县联亿酒店</t>
+  </si>
+  <si>
+    <t>索县亚拉镇亚拉北路豪克少儿健康成长生活馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂荣县裕康小吃店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂荣县喜孜茶馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂荣县好又多超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂荣县查曲路那美酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班戈县联亿酒店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4462,7 +5276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F499FFED-C427-6F48-BD4A-BE0E12FE3C9B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4501,10 +5315,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DAFDF8-470E-4541-A286-345007952DFA}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B40"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C74" sqref="C72:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4838,6 +5652,233 @@
         <v>238</v>
       </c>
     </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>1459</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4846,10 +5887,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A8CE3D-FFC8-B447-92A9-3B7C09B88909}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B12"/>
+      <selection activeCell="B13" sqref="B13:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4959,6 +6000,158 @@
         <v>259</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1307</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4967,10 +6160,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958EB10-C1E2-A94F-8D7F-EF5A98C9D919}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B51"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5392,6 +6585,440 @@
         <v>256</v>
       </c>
     </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="C100" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="C101" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="C102" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="C103" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="C104" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="C105" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="C106" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="C107" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="C108" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="C109" t="s">
+        <v>1466</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5400,10 +7027,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60133047-BB51-4D49-9CED-A3DADE4AA058}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B12" sqref="B12:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5505,6 +7132,166 @@
         <v>283</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1307</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5513,10 +7300,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AB6F90-E1EE-E34F-A78D-8F01D73B4CD4}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B61"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6018,6 +7805,502 @@
         <v>275</v>
       </c>
     </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="C114" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="C115" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="C116" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="C117" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="C118" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="C119" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="C120" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="C121" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="C122" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="C123" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="C124" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="C125" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="C126" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="C127" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="C128" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>1466</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6026,10 +8309,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E6A1B0-92AA-9B46-A66D-60019670EECD}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6196,6 +8479,214 @@
         <v>305</v>
       </c>
     </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1283</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6204,10 +8695,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67623E0-97DC-F245-8786-D16A2D485CEC}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B84"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6893,6 +9384,430 @@
         <v>306</v>
       </c>
     </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1273</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6901,10 +9816,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40529A4-99B6-6747-90E6-E435C9897D6B}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B31"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7166,6 +10081,134 @@
         <v>305</v>
       </c>
     </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7174,10 +10217,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901FBFEF-C22B-7246-B0DC-C2AB6150D408}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B90"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7911,6 +10954,278 @@
         <v>306</v>
       </c>
     </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1336</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7919,10 +11234,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06666610-E18B-5F42-9176-ECB9D3CC4D8F}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B51"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8342,6 +11657,134 @@
       </c>
       <c r="C51" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -8564,10 +12007,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABB67B5-01E8-2649-B422-CB41C26F3E96}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9325,6 +12768,278 @@
         <v>388</v>
       </c>
     </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1336</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9333,10 +13048,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D4C0C7-2C79-C640-A1D1-B786F4BA5B66}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191:B196"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197:B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10918,6 +14633,126 @@
         <v>549</v>
       </c>
     </row>
+    <row r="197" spans="2:3">
+      <c r="B197" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1364</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10926,10 +14761,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAF9ACE-7864-6E4A-8F1A-B349D994CB8C}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B75"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11543,6 +15378,373 @@
         <v>387</v>
       </c>
     </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="C110" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="C111" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="C112" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>1469</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11551,10 +15753,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE84A07E-A12E-C84C-A693-782E9D2E764A}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B211"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13259,6 +17461,118 @@
         <v>549</v>
       </c>
     </row>
+    <row r="212" spans="2:3">
+      <c r="B212" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="C221" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="C222" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="C223" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="C224" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" t="s">
+        <v>1491</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13267,10 +17581,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442A44A9-E03D-0549-B7D5-A6C2A6358015}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B77"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13903,6 +18217,217 @@
         <v>387</v>
       </c>
     </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="C90" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="C91" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="C92" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="C93" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="C94" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="C95" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="C96" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>1501</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13912,10 +18437,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565742B8-5815-2748-9347-F8A8F9C90127}">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189:B225"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235:C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15732,6 +20257,115 @@
         <v>351</v>
       </c>
     </row>
+    <row r="226" spans="2:3">
+      <c r="B226" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="C234" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="C235" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="C236" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="C237" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="C238" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="C239" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="C240" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" t="s">
+        <v>1499</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15741,10 +20375,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EE4D2D-E3CD-B545-9274-47494A0E03A0}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B70"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16321,6 +20955,221 @@
         <v>387</v>
       </c>
     </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
+        <v>1511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16330,10 +21179,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C672A3-111A-1C43-A3C4-4C770DA4670A}">
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
-    <sheetView topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270:B275"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18550,6 +23399,149 @@
         <v>351</v>
       </c>
     </row>
+    <row r="276" spans="2:3">
+      <c r="B276" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="B280" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="C287" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="C288" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297" t="s">
+        <v>1499</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18559,10 +23551,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6FFE1-ED2D-0142-8199-5579108364DB}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B85"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19260,6 +24252,229 @@
         <v>702</v>
       </c>
     </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>1511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19269,10 +24484,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9C174-8DAE-5B42-8C31-BFF08BF4025D}">
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299:B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21671,6 +26886,102 @@
       </c>
       <c r="C298" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -21724,10 +27035,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DC3569-8FC9-C04B-82A5-C6E85B945B8E}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B82"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -22400,6 +27711,94 @@
         <v>754</v>
       </c>
     </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22408,10 +27807,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9BF5DD-503A-B748-99E4-53BC441FC297}">
-  <dimension ref="A1:D292"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201:XFD201"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293:B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24761,6 +30160,110 @@
         <v>697</v>
       </c>
     </row>
+    <row r="293" spans="2:3">
+      <c r="B293" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1403</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24769,10 +30272,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B786A20E-6256-924B-8925-325A0E94CEC8}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25506,6 +31009,94 @@
         <v>754</v>
       </c>
     </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1409</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25515,10 +31106,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0541A105-44A6-544C-AEB4-48C1606EB39A}">
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="C305" sqref="C305"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300:B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27924,6 +33515,182 @@
         <v>697</v>
       </c>
     </row>
+    <row r="300" spans="2:3">
+      <c r="B300" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1422</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27933,10 +33700,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB3902F-3EDD-884C-8942-7D7FF3AABED3}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="B91" sqref="B91:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28670,6 +34437,54 @@
         <v>754</v>
       </c>
     </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28678,10 +34493,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AF5E94-5BAF-984D-B632-F33BEAEA04CB}">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="L307" sqref="L307"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316:B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31215,6 +37030,286 @@
         <v>697</v>
       </c>
     </row>
+    <row r="316" spans="2:3">
+      <c r="B316" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1432</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31223,10 +37318,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86D8C6D-6E03-6042-B3EA-45361CBC2D35}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31920,6 +38015,46 @@
         <v>754</v>
       </c>
     </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1392</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31928,10 +38063,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92E9804-93D5-2B4D-96F4-589377B38617}">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="B308" sqref="B308:B315"/>
+    <sheetView topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316:B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34465,6 +40600,294 @@
         <v>697</v>
       </c>
     </row>
+    <row r="316" spans="2:3">
+      <c r="B316" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34473,10 +40896,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E63C52-FCD6-6847-A3E3-BDBCA3BD6A12}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B81"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35138,6 +41561,38 @@
         <v>753</v>
       </c>
     </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35146,10 +41601,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A49EE3-4E46-4B49-9C9C-F88C2447DEEB}">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243:B247"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248:B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37137,6 +43592,270 @@
       </c>
       <c r="C247" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="B280" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>
@@ -37334,10 +44053,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F57EEB-D3DF-B544-AEDB-C1273DF91455}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37759,6 +44478,22 @@
         <v>699</v>
       </c>
     </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37767,10 +44502,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F3428A-B709-6C4B-B9A4-D9F98F41FA70}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236:B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39664,6 +46399,286 @@
         <v>1071</v>
       </c>
     </row>
+    <row r="236" spans="2:3">
+      <c r="B236" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1435</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39672,10 +46687,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332CCA50-9C45-B744-99BF-E80EDA8C3068}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B45"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -40049,6 +47064,46 @@
         <v>756</v>
       </c>
     </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1408</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40057,10 +47112,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825AE908-2FB4-A041-ACCD-841AA7A042AA}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231:B237"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238:B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -41970,6 +49025,246 @@
         <v>1038</v>
       </c>
     </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41978,10 +49273,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5F56A5-4123-C549-8DBA-67517D92CC4A}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B40"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42315,6 +49610,54 @@
         <v>756</v>
       </c>
     </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1397</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42323,10 +49666,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1388BE90-3E65-8646-8518-4B81DD8AFD83}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B30"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42580,6 +49923,246 @@
         <v>159</v>
       </c>
     </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1435</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42588,10 +50171,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761003CB-AD0D-A642-AFE3-97DA84269643}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B21"/>
+      <selection activeCell="B22" sqref="B22:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -42773,6 +50356,30 @@
         <v>165</v>
       </c>
     </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1403</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42781,10 +50388,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F07F1-3907-EF4F-B6A7-9F42925F5D73}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B29"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43030,6 +50637,246 @@
         <v>160</v>
       </c>
     </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43038,10 +50885,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F739CF04-F86C-CC41-8284-C4C7DB6D59FC}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B16"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43183,6 +51030,30 @@
         <v>165</v>
       </c>
     </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1448</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43191,10 +51062,10 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A21A82D-A844-794F-ADF7-57E0D937E85B}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209:B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44870,6 +52741,110 @@
       </c>
       <c r="C208" t="s">
         <v>1071</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -44910,10 +52885,10 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3DC6C-1105-5248-9157-5B8063ECB129}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -45167,6 +53142,142 @@
         <v>549</v>
       </c>
     </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45177,7 +53288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465AE6AB-2092-4D4E-8981-A0D3B71648A7}">
   <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
+    <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
@@ -46824,10 +54935,10 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586C47B1-81B8-8B4E-9BB6-2C2B43B0AF75}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -47057,6 +55168,254 @@
         <v>751</v>
       </c>
     </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47067,7 +55426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457F5F08-DBF1-0D4A-BE51-D5010B241598}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
+    <sheetView topLeftCell="A200" workbookViewId="0">
       <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
@@ -48842,10 +57201,10 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D545DD49-A831-1140-8A5D-5FE894D9A216}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -49137,6 +57496,254 @@
       </c>
       <c r="C35" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -49268,10 +57875,10 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9F983-F989-C54C-B3F7-720007FFEDB7}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -49485,6 +58092,118 @@
         <v>138</v>
       </c>
     </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1435</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49495,7 +58214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F8F6F-B4F7-2A43-B8A6-7331E6C4BA87}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
+    <sheetView topLeftCell="A150" workbookViewId="0">
       <selection activeCell="B180" sqref="B180:B185"/>
     </sheetView>
   </sheetViews>
@@ -51000,8 +59719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65A47DF-FF54-AC4E-BEC5-E483B4B1F4AB}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B80"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -56228,10 +64947,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD36A917-7ACD-9548-AF94-D3917B5E5AB9}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -56291,6 +65010,30 @@
       </c>
       <c r="C6" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
@@ -56601,10 +65344,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32ECA7F-99A2-DB4D-8D0B-18DC1E0936F8}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -56873,6 +65616,110 @@
       </c>
       <c r="C32" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1279</v>
       </c>
     </row>
   </sheetData>
@@ -57184,10 +66031,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D974D0F6-41C8-7F4F-9339-84656C196E91}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -57255,6 +66102,70 @@
       </c>
       <c r="C7" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1287</v>
       </c>
     </row>
   </sheetData>

--- a/asset/中高风险地区统计表.xlsx
+++ b/asset/中高风险地区统计表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asprinchang/CodeWorkSpace/PythonProject/MapDemo/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEA6CD9-690C-5B42-A999-A8660BD69932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C874B0-D94C-C547-B2C0-3E598B9D723C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22960" yWindow="500" windowWidth="28240" windowHeight="26880" xr2:uid="{202C529F-B391-E24F-83F1-C0461D09A1F7}"/>
+    <workbookView xWindow="22960" yWindow="500" windowWidth="28240" windowHeight="26880" firstSheet="1" activeTab="13" xr2:uid="{202C529F-B391-E24F-83F1-C0461D09A1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="8-7-red" sheetId="52" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19779" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19780" uniqueCount="2189">
   <si>
     <t>date</t>
   </si>
@@ -7457,7 +7457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F499FFED-C427-6F48-BD4A-BE0E12FE3C9B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -11062,8 +11062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AB6F90-E1EE-E34F-A78D-8F01D73B4CD4}">
   <dimension ref="A1:D203"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184:B202"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12694,6 +12694,9 @@
       </c>
     </row>
     <row r="203" spans="2:3">
+      <c r="B203" t="s">
+        <v>2186</v>
+      </c>
       <c r="C203" t="s">
         <v>2035</v>
       </c>
